--- a/data/modified_data/student-messy.xlsx
+++ b/data/modified_data/student-messy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="21360" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GP" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
   <si>
     <t>sex</t>
   </si>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1061,9 +1061,7 @@
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="O14" s="9"/>
       <c r="P14" s="9">
         <v>8</v>
       </c>
@@ -1087,9 +1085,7 @@
       <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9">
         <v>12</v>
       </c>
@@ -1187,9 +1183,7 @@
       <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9">
         <v>16</v>
       </c>
@@ -1235,9 +1229,7 @@
       <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9">
         <v>14</v>
       </c>
@@ -1285,9 +1277,7 @@
       <c r="D19" s="9">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9">
         <v>10</v>
       </c>
@@ -1483,9 +1473,7 @@
       <c r="D23" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9">
         <v>14</v>
       </c>
@@ -1605,9 +1593,7 @@
       <c r="N25" s="9">
         <v>2</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="O25" s="9"/>
       <c r="P25" s="9">
         <v>10</v>
       </c>
@@ -1706,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
